--- a/teacher/招聘周期.xlsx
+++ b/teacher/招聘周期.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="1350" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="省外" sheetId="1" r:id="rId1"/>
     <sheet name="省内" sheetId="2" r:id="rId2"/>
+    <sheet name="备注" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>学校</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,6 +94,98 @@
   </si>
   <si>
     <t>2.5个月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淄博职业学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年淄博职业学院公开招聘教师公告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.zbvc.edu.cn/info/1065/8503.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咨询电话：0533-2348010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.zbvc.edu.cn/info/1065/9114.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4个月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q:：国家重点学科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江理工大学的机械专业是什么水平，
+http://mechanical.zstu.edu.cn/xygk/xyjj.htm
+机械工程学科为浙江省重点建设高校优势特色学科、省A类一流学科和重中之重学科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淄博市的“名校人才特招行动”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件高
+（1）博士研究生；
+（2）2016至2019年度全球Top300名（范围：The Times、QS、Usnews、ARWU）高校的全日制硕士研究生；
+（3）国内“双一流”建设高校全日制硕士研究生（附件10）；
+（4）国家重点学科的全日制硕士研究生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高技能紧缺人才</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、世界技能大赛金、银、铜牌获得者；
+2、国家级技能大师工作室主要负责人；
+3、获得“全国技术能手”人员。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滨州职业学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青岛职业技术学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.qtc.edu.cn/info/1024/35013.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青岛职业技术学院2021年公开招聘工作人员简章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.qtc.edu.cn/info/1024/34092.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否有适合岗位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数控技术专业教师 1、2021届应届毕业生；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -145,7 +238,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
@@ -153,6 +246,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -516,10 +610,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -528,11 +622,11 @@
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="76.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.375" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="77.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -557,8 +651,14 @@
       <c r="H1" t="s">
         <v>3</v>
       </c>
+      <c r="I1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -582,6 +682,63 @@
       </c>
       <c r="H2" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43651</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="5">
+        <v>43788</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="1">
+        <v>44263</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="1">
+        <v>44384</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -589,8 +746,56 @@
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
     <hyperlink ref="G2" r:id="rId2"/>
+    <hyperlink ref="D3" r:id="rId3"/>
+    <hyperlink ref="G3" r:id="rId4"/>
+    <hyperlink ref="G5" r:id="rId5"/>
+    <hyperlink ref="D5" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId7"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="50.5" customWidth="1"/>
+    <col min="2" max="2" width="57.25" customWidth="1"/>
+    <col min="3" max="3" width="69.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="125.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/teacher/招聘周期.xlsx
+++ b/teacher/招聘周期.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1350" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="省外" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
   <si>
     <t>学校</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -186,6 +186,46 @@
   </si>
   <si>
     <t>数控技术专业教师 1、2021届应届毕业生；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰山职业技术学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年泰山职业技术学院公开招聘人员公告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.mtotc.com.cn/info/1002/8648.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0538-8628123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.mtotc.com.cn/info/1002/8804.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2个月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅导员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>济南工程职业技术学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站显示有问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xjc.jngcxy.edu.cn/tzgg/4.htm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -610,14 +650,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="2" max="2" width="11.875" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="76.125" bestFit="1" customWidth="1"/>
@@ -741,6 +782,46 @@
         <v>38</v>
       </c>
     </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="1">
+        <v>44113</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="1">
+        <v>44166</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -750,9 +831,13 @@
     <hyperlink ref="G3" r:id="rId4"/>
     <hyperlink ref="G5" r:id="rId5"/>
     <hyperlink ref="D5" r:id="rId6"/>
+    <hyperlink ref="A10" r:id="rId7" display="http://www.mtotc.com.cn/"/>
+    <hyperlink ref="D10" r:id="rId8"/>
+    <hyperlink ref="G10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId11"/>
 </worksheet>
 </file>
 

--- a/teacher/招聘周期.xlsx
+++ b/teacher/招聘周期.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2250" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="省外" sheetId="1" r:id="rId1"/>
     <sheet name="省内" sheetId="2" r:id="rId2"/>
     <sheet name="备注" sheetId="3" r:id="rId3"/>
+    <sheet name="面试要求" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
   <si>
     <t>学校</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -221,11 +222,68 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>网站显示有问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xjc.jngcxy.edu.cn/tzgg/4.htm</t>
+    <t>滨州职业学院2020高层次人才引进计划表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学位要求：博士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滨州职业学院2021年招聘工作人员公告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bzpt.edu.cn/2021/0302/c1618a32257/page.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0543—5089519</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔试主要测试公共基础知识、教学基础知识（包括教育学、心理学等知识）、公文写作及其他应知应会内容。笔试成绩满分为100分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bzpt.edu.cn/2021/0701/c1618a35261/page.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.5个月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>济南工程职业技术学院2020年公开招聘人员简章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.jngcxy.edu.cn/info/1047/8848.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A、B类岗位面试采用试讲和答辩相结合的方式进行。试讲主要考察应聘人员综合运用教育学、心理学知识和现代教育手段实现教学目的、组织课程实施、掌握课程内容、运用教学语言和教学资源等方面的能力，以及使用普通话、板书、讲解及课堂示范等方面的技能；答辩主要从职业道德、语言表达、逻辑思维、专业素质和专业技能等方面考察应聘人员从业的基本素质和基本能力。
+面试成绩试讲占70%，答辩占30%，均采取百分制计算。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0531-86385010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.jngcxy.edu.cn/info/1047/9533.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求有海外经验</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -257,12 +315,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -278,7 +342,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
@@ -287,6 +351,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -303,6 +368,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>382490</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114365</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24060150" y="190500"/>
+          <a:ext cx="10679015" cy="466790"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -650,16 +758,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="11.875" customWidth="1"/>
+    <col min="2" max="2" width="75.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="76.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.375" customWidth="1"/>
@@ -667,7 +775,7 @@
     <col min="7" max="7" width="45.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -699,7 +807,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -725,7 +833,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -751,12 +859,39 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="1">
+        <v>44257</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="1">
+        <v>44377</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -782,7 +917,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>39</v>
       </c>
@@ -811,15 +946,33 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>46</v>
       </c>
-      <c r="C11" t="s">
-        <v>47</v>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="1">
+        <v>44105</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>48</v>
+        <v>57</v>
+      </c>
+      <c r="E11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="1">
+        <v>44221</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -835,18 +988,22 @@
     <hyperlink ref="D10" r:id="rId8"/>
     <hyperlink ref="G10" r:id="rId9"/>
     <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D4" r:id="rId11"/>
+    <hyperlink ref="G4" r:id="rId12"/>
+    <hyperlink ref="G11" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId14"/>
+  <drawing r:id="rId15"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -854,9 +1011,10 @@
     <col min="1" max="1" width="50.5" customWidth="1"/>
     <col min="2" max="2" width="57.25" customWidth="1"/>
     <col min="3" max="3" width="69.75" customWidth="1"/>
+    <col min="4" max="4" width="38.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -866,8 +1024,11 @@
       <c r="C1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="125.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="125.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>25</v>
       </c>
@@ -876,6 +1037,39 @@
       </c>
       <c r="C2" s="4" t="s">
         <v>29</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A2:A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="35" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="285" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/teacher/招聘周期.xlsx
+++ b/teacher/招聘周期.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2250" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="3150" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="省外" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="74">
   <si>
     <t>学校</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -286,12 +286,57 @@
     <t>要求有海外经验</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>山东电子职业技术学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东电子职业技术学院2020年公开招聘工作人员简章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://hrss.shandong.gov.cn/articles/ch00238/202009/2b174cb4-0dce-4796-8619-031a09741aab.shtml
+http://www.sdcet.cn/articles/ch00304/202009/7503980a-febe-403c-b0e0-954fc47bc93c.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0531-83118165</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未找到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丽水职业技术学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lszjy.com/site_rsc/contents/114/45343.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年丽水职业技术学院招聘专业技术人员公告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://rsj.lishui.gov.cn/art/2020/12/17/art_1229275321_4342832.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本科学校实验员岗位如何</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,6 +358,13 @@
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -342,7 +394,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
@@ -352,6 +404,7 @@
     </xf>
     <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -402,6 +455,158 @@
         <a:xfrm>
           <a:off x="24060150" y="190500"/>
           <a:ext cx="10679015" cy="466790"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>497193</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28781</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17173575" y="2714625"/>
+          <a:ext cx="13565493" cy="1476581"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>535011</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>19406</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17173575" y="4343400"/>
+          <a:ext cx="11545911" cy="2553056"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>125571</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>104966</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17173575" y="7058025"/>
+          <a:ext cx="12508071" cy="1371791"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>573308</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>57411</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17173575" y="8867775"/>
+          <a:ext cx="12955808" cy="1867161"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -676,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -745,28 +950,51 @@
         <v>12</v>
       </c>
     </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43938</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="7">
+        <v>44182</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
     <hyperlink ref="F2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3" display="http://www.lszjy.com/site_rsc/contents/114/45343.html"/>
+    <hyperlink ref="D3" r:id="rId4"/>
+    <hyperlink ref="F3" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="E28" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="75.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="76.125" bestFit="1" customWidth="1"/>
@@ -973,6 +1201,34 @@
       </c>
       <c r="J11" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="1">
+        <v>44090</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1054,7 +1310,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A2:A9"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1067,7 +1323,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="285" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>58</v>
       </c>

--- a/teacher/招聘周期.xlsx
+++ b/teacher/招聘周期.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3150" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12615" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="省外" sheetId="1" r:id="rId1"/>
@@ -12,128 +12,262 @@
     <sheet name="备注" sheetId="3" r:id="rId3"/>
     <sheet name="面试要求" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="86">
   <si>
     <t>学校</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招聘名称</t>
   </si>
   <si>
     <t>招聘发布时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关网页</t>
   </si>
   <si>
     <t>成绩公示时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>时间间隔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招聘名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系电话</t>
   </si>
   <si>
     <t>浙江机电职业技术学院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>浙江机电职业技术学院关于2021年特殊专业技术岗位公开招聘工作有关安排的通知</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相关网页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://zime.edu.wy5u.cn/info/notice/detail?id=08f80e552dcb49bf84acc9f9da154fb2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://zime.edu.wy5u.cn/info/notice/detail?id=a285c355625441f1b347e168dcb08072</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2个月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>咨询电话：0571-87773032（人事处张老师）
                  0571-87773605（人事处钟老师）
                  0571-87773093（人事处程老师）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丽水职业技术学院</t>
+  </si>
+  <si>
+    <t>2020年丽水职业技术学院招聘专业技术人员公告</t>
+  </si>
+  <si>
+    <t>http://www.lszjy.com/site_rsc/contents/114/45343.html</t>
+  </si>
+  <si>
+    <t>http://rsj.lishui.gov.cn/art/2020/12/17/art_1229275321_4342832.html</t>
+  </si>
+  <si>
+    <t>是否有适合岗位</t>
+  </si>
+  <si>
+    <t>原因</t>
   </si>
   <si>
     <t>山东轻工职业学院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.sdlivc.com/info/1083/20447.htm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>咨询电话：0533-6811613</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.sdlivc.com/info/1083/21062.htm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2.5个月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>淄博职业学院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2019年淄博职业学院公开招聘教师公告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://www.zbvc.edu.cn/info/1065/8503.htm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>咨询电话：0533-2348010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://www.zbvc.edu.cn/info/1065/9114.htm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4个月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滨州职业学院</t>
+  </si>
+  <si>
+    <t>滨州职业学院2021年招聘工作人员公告</t>
+  </si>
+  <si>
+    <t>https://www.bzpt.edu.cn/2021/0302/c1618a32257/page.htm</t>
+  </si>
+  <si>
+    <t>0543—5089519</t>
+  </si>
+  <si>
+    <t>https://www.bzpt.edu.cn/2021/0701/c1618a35261/page.htm</t>
+  </si>
+  <si>
+    <t>3.5个月</t>
+  </si>
+  <si>
+    <t>有</t>
+  </si>
+  <si>
+    <t>笔试主要测试公共基础知识、教学基础知识（包括教育学、心理学等知识）、公文写作及其他应知应会内容。笔试成绩满分为100分</t>
+  </si>
+  <si>
+    <t>青岛职业技术学院</t>
+  </si>
+  <si>
+    <t>青岛职业技术学院2021年公开招聘工作人员简章</t>
+  </si>
+  <si>
+    <t>http://www.qtc.edu.cn/info/1024/34092.htm</t>
+  </si>
+  <si>
+    <t>http://www.qtc.edu.cn/info/1024/35013.htm</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>数控技术专业教师 1、2021届应届毕业生；</t>
+  </si>
+  <si>
+    <t>日照职业技术学院</t>
+  </si>
+  <si>
+    <t>2021年公开招聘工作人员简章</t>
+  </si>
+  <si>
+    <t>http://www.rzpt.cn/news/ctnshow.php/aid/26422</t>
+  </si>
+  <si>
+    <t>0633—7987021</t>
+  </si>
+  <si>
+    <t>威海职业学院</t>
+  </si>
+  <si>
+    <t>2021年威海职业学院公开招聘工作人员简章</t>
+  </si>
+  <si>
+    <t>http://www.whvc.edu.cn/zgc/6b/7d/c1583a93053/page.htm</t>
+  </si>
+  <si>
+    <t>山东职业学院</t>
+  </si>
+  <si>
+    <t>山东职业学院2021年专业技术中、初级岗位公开招聘工作人员简章</t>
+  </si>
+  <si>
+    <t>http://www.sdp.edu.cn/info/1124/4459.htm</t>
+  </si>
+  <si>
+    <t>0531-66772215</t>
+  </si>
+  <si>
+    <t>山东科技职业学院</t>
+  </si>
+  <si>
+    <t>山东科技职业学院2020年公开招聘工作人员简章</t>
+  </si>
+  <si>
+    <t>https://www.sdvcst.edu.cn/info/1031/12200.htm</t>
+  </si>
+  <si>
+    <t>泰山职业技术学院</t>
+  </si>
+  <si>
+    <t>2020年泰山职业技术学院公开招聘人员公告</t>
+  </si>
+  <si>
+    <t>http://www.mtotc.com.cn/info/1002/8648.htm</t>
+  </si>
+  <si>
+    <t>0538-8628123</t>
+  </si>
+  <si>
+    <t>http://www.mtotc.com.cn/info/1002/8804.htm</t>
+  </si>
+  <si>
+    <t>辅导员</t>
+  </si>
+  <si>
+    <t>济南工程职业技术学院</t>
+  </si>
+  <si>
+    <t>济南工程职业技术学院2020年公开招聘人员简章</t>
+  </si>
+  <si>
+    <t>https://www.jngcxy.edu.cn/info/1047/8848.htm</t>
+  </si>
+  <si>
+    <t>0531-86385010</t>
+  </si>
+  <si>
+    <t>https://www.jngcxy.edu.cn/info/1047/9533.htm</t>
+  </si>
+  <si>
+    <t>要求有海外经验</t>
+  </si>
+  <si>
+    <t>山东电子职业技术学院</t>
+  </si>
+  <si>
+    <t>山东电子职业技术学院2020年公开招聘工作人员简章</t>
+  </si>
+  <si>
+    <t>http://hrss.shandong.gov.cn/articles/ch00238/202009/2b174cb4-0dce-4796-8619-031a09741aab.shtml
+http://www.sdcet.cn/articles/ch00304/202009/7503980a-febe-403c-b0e0-954fc47bc93c.shtml</t>
+  </si>
+  <si>
+    <t>0531-83118165</t>
+  </si>
+  <si>
+    <t>未找到</t>
+  </si>
+  <si>
+    <t>本科学校实验员岗位如何</t>
+  </si>
+  <si>
+    <t>？</t>
   </si>
   <si>
     <t>Q:：国家重点学科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淄博市的“名校人才特招行动”</t>
+  </si>
+  <si>
+    <t>高技能紧缺人才</t>
+  </si>
+  <si>
+    <t>滨州职业学院2020高层次人才引进计划表</t>
   </si>
   <si>
     <t>浙江理工大学的机械专业是什么水平，
 http://mechanical.zstu.edu.cn/xygk/xyjj.htm
 机械工程学科为浙江省重点建设高校优势特色学科、省A类一流学科和重中之重学科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>淄博市的“名校人才特招行动”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>条件高
@@ -141,213 +275,35 @@
 （2）2016至2019年度全球Top300名（范围：The Times、QS、Usnews、ARWU）高校的全日制硕士研究生；
 （3）国内“双一流”建设高校全日制硕士研究生（附件10）；
 （4）国家重点学科的全日制硕士研究生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高技能紧缺人才</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、世界技能大赛金、银、铜牌获得者；
 2、国家级技能大师工作室主要负责人；
 3、获得“全国技术能手”人员。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滨州职业学院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青岛职业技术学院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.qtc.edu.cn/info/1024/35013.htm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青岛职业技术学院2021年公开招聘工作人员简章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.qtc.edu.cn/info/1024/34092.htm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否有适合岗位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原因</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数控技术专业教师 1、2021届应届毕业生；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泰山职业技术学院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020年泰山职业技术学院公开招聘人员公告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.mtotc.com.cn/info/1002/8648.htm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0538-8628123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.mtotc.com.cn/info/1002/8804.htm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2个月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>辅导员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>济南工程职业技术学院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滨州职业学院2020高层次人才引进计划表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>学位要求：博士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滨州职业学院2021年招聘工作人员公告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bzpt.edu.cn/2021/0302/c1618a32257/page.htm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0543—5089519</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>笔试主要测试公共基础知识、教学基础知识（包括教育学、心理学等知识）、公文写作及其他应知应会内容。笔试成绩满分为100分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bzpt.edu.cn/2021/0701/c1618a35261/page.htm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.5个月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>济南工程职业技术学院2020年公开招聘人员简章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.jngcxy.edu.cn/info/1047/8848.htm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>A、B类岗位面试采用试讲和答辩相结合的方式进行。试讲主要考察应聘人员综合运用教育学、心理学知识和现代教育手段实现教学目的、组织课程实施、掌握课程内容、运用教学语言和教学资源等方面的能力，以及使用普通话、板书、讲解及课堂示范等方面的技能；答辩主要从职业道德、语言表达、逻辑思维、专业素质和专业技能等方面考察应聘人员从业的基本素质和基本能力。
 面试成绩试讲占70%，答辩占30%，均采取百分制计算。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0531-86385010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.jngcxy.edu.cn/info/1047/9533.htm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>要求有海外经验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>山东电子职业技术学院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>山东电子职业技术学院2020年公开招聘工作人员简章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://hrss.shandong.gov.cn/articles/ch00238/202009/2b174cb4-0dce-4796-8619-031a09741aab.shtml
-http://www.sdcet.cn/articles/ch00304/202009/7503980a-febe-403c-b0e0-954fc47bc93c.shtml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0531-83118165</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未找到</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丽水职业技术学院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.lszjy.com/site_rsc/contents/114/45343.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020年丽水职业技术学院招聘专业技术人员公告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://rsj.lishui.gov.cn/art/2020/12/17/art_1229275321_4342832.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本科学校实验员岗位如何</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -356,18 +312,166 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF333333"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF333333"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -376,12 +480,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -389,42 +679,328 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="10" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10"/>
     <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
@@ -446,15 +1022,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="24060150" y="190500"/>
-          <a:ext cx="10679015" cy="466790"/>
+          <a:off x="24517350" y="190500"/>
+          <a:ext cx="10678795" cy="466725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -484,15 +1060,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17173575" y="2714625"/>
-          <a:ext cx="13565493" cy="1476581"/>
+          <a:off x="17630775" y="2752725"/>
+          <a:ext cx="13564870" cy="1476375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -522,15 +1098,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17173575" y="4343400"/>
-          <a:ext cx="11545911" cy="2553056"/>
+          <a:off x="17630775" y="4381500"/>
+          <a:ext cx="11545570" cy="2552700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -560,15 +1136,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17173575" y="7058025"/>
-          <a:ext cx="12508071" cy="1371791"/>
+          <a:off x="17630775" y="7096125"/>
+          <a:ext cx="12507595" cy="1371600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -598,19 +1174,145 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17173575" y="8867775"/>
-          <a:ext cx="12955808" cy="1867161"/>
+          <a:off x="17630775" y="8905875"/>
+          <a:ext cx="12955270" cy="1866900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22278975" y="752475"/>
+          <a:ext cx="13811250" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>837565</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>131445</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>143510</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15191740" y="1217295"/>
+          <a:ext cx="11430635" cy="412115"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4848225</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1076325</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6638925" y="3181350"/>
+          <a:ext cx="8791575" cy="2565400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -661,7 +1363,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -696,7 +1398,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -870,467 +1572,530 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="75.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.375" customWidth="1"/>
+    <col min="2" max="2" width="75.75" customWidth="1"/>
+    <col min="3" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="67.5" customWidth="1"/>
     <col min="8" max="8" width="34.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="85.5" spans="1:8">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2">
+        <v>44267</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2">
+        <v>44329</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
         <v>11</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1">
-        <v>44267</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1">
-        <v>44329</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="1">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2">
         <v>43938</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="7">
+      <c r="D3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="9">
         <v>44182</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>71</v>
+      <c r="F3" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="F2" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3" display="http://www.lszjy.com/site_rsc/contents/114/45343.html"/>
-    <hyperlink ref="D3" r:id="rId4"/>
-    <hyperlink ref="F3" r:id="rId5"/>
+    <hyperlink ref="D2" r:id="rId1" display="http://zime.edu.wy5u.cn/info/notice/detail?id=08f80e552dcb49bf84acc9f9da154fb2"/>
+    <hyperlink ref="F2" r:id="rId2" display="http://zime.edu.wy5u.cn/info/notice/detail?id=a285c355625441f1b347e168dcb08072"/>
+    <hyperlink ref="B3" r:id="rId3" display="2020年丽水职业技术学院招聘专业技术人员公告"/>
+    <hyperlink ref="D3" r:id="rId3" display="http://www.lszjy.com/site_rsc/contents/114/45343.html"/>
+    <hyperlink ref="F3" r:id="rId4" display="http://rsj.lishui.gov.cn/art/2020/12/17/art_1229275321_4342832.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E28" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="75.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="76.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="75.75" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="76.125" customWidth="1"/>
     <col min="5" max="5" width="27.375" customWidth="1"/>
-    <col min="6" max="6" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
     <col min="7" max="7" width="45.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
       <c r="G1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2">
         <v>44333</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="D2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2">
         <v>44410</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>16</v>
+      <c r="G2" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="1">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2">
         <v>43651</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>20</v>
+      <c r="D3" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F3" s="5">
         <v>43788</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>22</v>
+      <c r="G3" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="2">
+        <v>44257</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="2">
+        <v>44377</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44263</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="2">
+        <v>44384</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44396</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="1">
-        <v>44257</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="C7" s="2">
+        <v>44299</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E4" t="s">
+    </row>
+    <row r="8" ht="17.25" spans="1:5">
+      <c r="A8" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="1">
-        <v>44377</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="B8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44425</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="H4" t="s">
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
         <v>55</v>
       </c>
-      <c r="I4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K4" t="s">
-        <v>53</v>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="2">
+        <v>43958</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="1">
-        <v>44263</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="1">
-        <v>44384</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" t="s">
-        <v>38</v>
+    <row r="10" spans="1:9">
+      <c r="A10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="2">
+        <v>44113</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="2">
+        <v>44166</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="1">
-        <v>44113</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" t="s">
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="2">
+        <v>44105</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="2">
+        <v>44221</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="1">
-        <v>44166</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" t="s">
-        <v>44</v>
-      </c>
-      <c r="I10" t="s">
-        <v>45</v>
+      <c r="J11" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="1">
-        <v>44105</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="1">
-        <v>44221</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I11" t="s">
-        <v>61</v>
-      </c>
-      <c r="J11" t="s">
-        <v>62</v>
+    <row r="12" ht="57" spans="1:6">
+      <c r="A12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="2">
+        <v>44090</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="57" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="1">
-        <v>44090</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="G2" r:id="rId2"/>
-    <hyperlink ref="D3" r:id="rId3"/>
-    <hyperlink ref="G3" r:id="rId4"/>
-    <hyperlink ref="G5" r:id="rId5"/>
-    <hyperlink ref="D5" r:id="rId6"/>
-    <hyperlink ref="A10" r:id="rId7" display="http://www.mtotc.com.cn/"/>
-    <hyperlink ref="D10" r:id="rId8"/>
-    <hyperlink ref="G10" r:id="rId9"/>
-    <hyperlink ref="D11" r:id="rId10"/>
-    <hyperlink ref="D4" r:id="rId11"/>
-    <hyperlink ref="G4" r:id="rId12"/>
-    <hyperlink ref="G11" r:id="rId13"/>
+    <hyperlink ref="D2" r:id="rId2" display="http://www.sdlivc.com/info/1083/20447.htm"/>
+    <hyperlink ref="G2" r:id="rId3" display="http://www.sdlivc.com/info/1083/21062.htm"/>
+    <hyperlink ref="D3" r:id="rId4" display="https://www.zbvc.edu.cn/info/1065/8503.htm"/>
+    <hyperlink ref="G3" r:id="rId5" display="https://www.zbvc.edu.cn/info/1065/9114.htm"/>
+    <hyperlink ref="G5" r:id="rId6" display="http://www.qtc.edu.cn/info/1024/35013.htm"/>
+    <hyperlink ref="D5" r:id="rId7" display="http://www.qtc.edu.cn/info/1024/34092.htm"/>
+    <hyperlink ref="A10" r:id="rId8" display="泰山职业技术学院"/>
+    <hyperlink ref="D10" r:id="rId9" display="http://www.mtotc.com.cn/info/1002/8648.htm"/>
+    <hyperlink ref="G10" r:id="rId10" display="http://www.mtotc.com.cn/info/1002/8804.htm"/>
+    <hyperlink ref="D11" r:id="rId11" display="https://www.jngcxy.edu.cn/info/1047/8848.htm"/>
+    <hyperlink ref="D4" r:id="rId12" display="https://www.bzpt.edu.cn/2021/0302/c1618a32257/page.htm"/>
+    <hyperlink ref="G4" r:id="rId13" display="https://www.bzpt.edu.cn/2021/0701/c1618a35261/page.htm"/>
+    <hyperlink ref="G11" r:id="rId14" display="https://www.jngcxy.edu.cn/info/1047/9533.htm"/>
+    <hyperlink ref="D6" r:id="rId15" display="http://www.rzpt.cn/news/ctnshow.php/aid/26422"/>
+    <hyperlink ref="B7" r:id="rId16" display="2021年威海职业学院公开招聘工作人员简章"/>
+    <hyperlink ref="D7" r:id="rId16" display="http://www.whvc.edu.cn/zgc/6b/7d/c1583a93053/page.htm"/>
+    <hyperlink ref="D8" r:id="rId17" display="http://www.sdp.edu.cn/info/1124/4459.htm"/>
+    <hyperlink ref="D9" r:id="rId18" display="https://www.sdvcst.edu.cn/info/1031/12200.htm"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId14"/>
-  <drawing r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="50.5" customWidth="1"/>
     <col min="2" max="2" width="57.25" customWidth="1"/>
     <col min="3" max="3" width="69.75" customWidth="1"/>
-    <col min="4" max="4" width="38.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="125.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>48</v>
+    <row r="2" ht="125.25" customHeight="1" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="185.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>58</v>
+    <row r="2" ht="185.25" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/teacher/招聘周期.xlsx
+++ b/teacher/招聘周期.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workstation\workstation\teacher\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12615" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="14760" windowHeight="4224" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="省外" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="91">
   <si>
     <t>学校</t>
   </si>
@@ -199,9 +204,6 @@
   </si>
   <si>
     <t>2020年泰山职业技术学院公开招聘人员公告</t>
-  </si>
-  <si>
-    <t>http://www.mtotc.com.cn/info/1002/8648.htm</t>
   </si>
   <si>
     <t>0538-8628123</t>
@@ -288,18 +290,36 @@
     <t>A、B类岗位面试采用试讲和答辩相结合的方式进行。试讲主要考察应聘人员综合运用教育学、心理学知识和现代教育手段实现教学目的、组织课程实施、掌握课程内容、运用教学语言和教学资源等方面的能力，以及使用普通话、板书、讲解及课堂示范等方面的技能；答辩主要从职业道德、语言表达、逻辑思维、专业素质和专业技能等方面考察应聘人员从业的基本素质和基本能力。
 面试成绩试讲占70%，答辩占30%，均采取百分制计算。</t>
   </si>
+  <si>
+    <t>青岛港湾职业技术学院</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>青岛港湾职业技术学院2021年应届大学毕业生招聘简章</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.qdgw.edu.cn/info/1271/13626.htm</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求应届</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>机电的要求有参加大赛的经验</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.mtotc.com.cn/info/1002/8648.htm</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -328,150 +348,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -480,198 +363,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -679,249 +376,10 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -929,8 +387,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="10" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -939,68 +397,25 @@
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
@@ -1022,7 +437,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1041,16 +456,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1005840</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>497193</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>28781</xdr:rowOff>
+      <xdr:colOff>428613</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>13541</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1060,15 +475,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17630775" y="2752725"/>
-          <a:ext cx="13564870" cy="1476375"/>
+          <a:off x="16017240" y="2811780"/>
+          <a:ext cx="12254853" cy="1430861"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1098,7 +513,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1136,7 +551,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1174,7 +589,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1212,7 +627,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1254,7 +669,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1277,16 +692,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>4848225</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>329565</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>89535</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1076325</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>98425</xdr:rowOff>
+      <xdr:colOff>1533525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>121285</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1296,15 +711,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6638925" y="3181350"/>
-          <a:ext cx="8791575" cy="2565400"/>
+          <a:off x="7134225" y="3267075"/>
+          <a:ext cx="7536180" cy="2485390"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1572,28 +987,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.375" customWidth="1"/>
-    <col min="2" max="2" width="75.75" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="75.77734375" customWidth="1"/>
     <col min="3" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="67.5" customWidth="1"/>
-    <col min="8" max="8" width="34.375" customWidth="1"/>
+    <col min="6" max="6" width="67.44140625" customWidth="1"/>
+    <col min="8" max="8" width="34.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1619,7 +1034,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="85.5" spans="1:8">
+    <row r="2" spans="1:8" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1645,7 +1060,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1666,40 +1081,39 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="http://zime.edu.wy5u.cn/info/notice/detail?id=08f80e552dcb49bf84acc9f9da154fb2"/>
-    <hyperlink ref="F2" r:id="rId2" display="http://zime.edu.wy5u.cn/info/notice/detail?id=a285c355625441f1b347e168dcb08072"/>
-    <hyperlink ref="B3" r:id="rId3" display="2020年丽水职业技术学院招聘专业技术人员公告"/>
-    <hyperlink ref="D3" r:id="rId3" display="http://www.lszjy.com/site_rsc/contents/114/45343.html"/>
-    <hyperlink ref="F3" r:id="rId4" display="http://rsj.lishui.gov.cn/art/2020/12/17/art_1229275321_4342832.html"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="D3" r:id="rId4"/>
+    <hyperlink ref="F3" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C12" sqref="C10:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5" customWidth="1"/>
-    <col min="2" max="2" width="75.75" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="76.125" customWidth="1"/>
-    <col min="5" max="5" width="27.375" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
-    <col min="7" max="7" width="45.5" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="2" max="2" width="75.77734375" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" customWidth="1"/>
+    <col min="4" max="4" width="76.109375" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="45.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1731,7 +1145,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -1757,7 +1171,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -1783,7 +1197,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>30</v>
       </c>
@@ -1815,7 +1229,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -1841,7 +1255,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -1858,7 +1272,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -1872,7 +1286,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" ht="17.25" spans="1:5">
+    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -1889,7 +1303,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -1903,7 +1317,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>58</v>
       </c>
@@ -1914,188 +1328,207 @@
         <v>44113</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" t="s">
         <v>60</v>
-      </c>
-      <c r="E10" t="s">
-        <v>61</v>
       </c>
       <c r="F10" s="2">
         <v>44166</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H10" t="s">
         <v>11</v>
       </c>
       <c r="I10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>64</v>
-      </c>
-      <c r="B11" t="s">
-        <v>65</v>
       </c>
       <c r="C11" s="2">
         <v>44105</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" t="s">
         <v>66</v>
-      </c>
-      <c r="E11" t="s">
-        <v>67</v>
       </c>
       <c r="F11" s="2">
         <v>44221</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I11" t="s">
         <v>42</v>
       </c>
       <c r="J11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="12" ht="57" spans="1:6">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>70</v>
-      </c>
-      <c r="B12" t="s">
-        <v>71</v>
       </c>
       <c r="C12" s="2">
         <v>44090</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" t="s">
         <v>72</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>73</v>
       </c>
-      <c r="F12" t="s">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="5">
+        <v>44138</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I13" t="s">
+        <v>88</v>
+      </c>
+      <c r="J13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
         <v>75</v>
       </c>
-      <c r="B19" t="s">
-        <v>76</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId2" display="http://www.sdlivc.com/info/1083/20447.htm"/>
-    <hyperlink ref="G2" r:id="rId3" display="http://www.sdlivc.com/info/1083/21062.htm"/>
-    <hyperlink ref="D3" r:id="rId4" display="https://www.zbvc.edu.cn/info/1065/8503.htm"/>
-    <hyperlink ref="G3" r:id="rId5" display="https://www.zbvc.edu.cn/info/1065/9114.htm"/>
-    <hyperlink ref="G5" r:id="rId6" display="http://www.qtc.edu.cn/info/1024/35013.htm"/>
-    <hyperlink ref="D5" r:id="rId7" display="http://www.qtc.edu.cn/info/1024/34092.htm"/>
-    <hyperlink ref="A10" r:id="rId8" display="泰山职业技术学院"/>
-    <hyperlink ref="D10" r:id="rId9" display="http://www.mtotc.com.cn/info/1002/8648.htm"/>
-    <hyperlink ref="G10" r:id="rId10" display="http://www.mtotc.com.cn/info/1002/8804.htm"/>
-    <hyperlink ref="D11" r:id="rId11" display="https://www.jngcxy.edu.cn/info/1047/8848.htm"/>
-    <hyperlink ref="D4" r:id="rId12" display="https://www.bzpt.edu.cn/2021/0302/c1618a32257/page.htm"/>
-    <hyperlink ref="G4" r:id="rId13" display="https://www.bzpt.edu.cn/2021/0701/c1618a35261/page.htm"/>
-    <hyperlink ref="G11" r:id="rId14" display="https://www.jngcxy.edu.cn/info/1047/9533.htm"/>
-    <hyperlink ref="D6" r:id="rId15" display="http://www.rzpt.cn/news/ctnshow.php/aid/26422"/>
-    <hyperlink ref="B7" r:id="rId16" display="2021年威海职业学院公开招聘工作人员简章"/>
-    <hyperlink ref="D7" r:id="rId16" display="http://www.whvc.edu.cn/zgc/6b/7d/c1583a93053/page.htm"/>
-    <hyperlink ref="D8" r:id="rId17" display="http://www.sdp.edu.cn/info/1124/4459.htm"/>
-    <hyperlink ref="D9" r:id="rId18" display="https://www.sdvcst.edu.cn/info/1031/12200.htm"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="G2" r:id="rId2"/>
+    <hyperlink ref="D3" r:id="rId3"/>
+    <hyperlink ref="G3" r:id="rId4"/>
+    <hyperlink ref="G5" r:id="rId5"/>
+    <hyperlink ref="D5" r:id="rId6"/>
+    <hyperlink ref="A10" r:id="rId7"/>
+    <hyperlink ref="D10" r:id="rId8"/>
+    <hyperlink ref="G10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D4" r:id="rId11"/>
+    <hyperlink ref="G4" r:id="rId12"/>
+    <hyperlink ref="G11" r:id="rId13"/>
+    <hyperlink ref="D6" r:id="rId14"/>
+    <hyperlink ref="B7" r:id="rId15"/>
+    <hyperlink ref="D7" r:id="rId16"/>
+    <hyperlink ref="D8" r:id="rId17"/>
+    <hyperlink ref="D9" r:id="rId18"/>
+    <hyperlink ref="D13" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId20"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.5" customWidth="1"/>
-    <col min="2" max="2" width="57.25" customWidth="1"/>
-    <col min="3" max="3" width="69.75" customWidth="1"/>
-    <col min="4" max="4" width="38.25" customWidth="1"/>
+    <col min="1" max="1" width="50.44140625" customWidth="1"/>
+    <col min="2" max="2" width="57.21875" customWidth="1"/>
+    <col min="3" max="3" width="69.77734375" customWidth="1"/>
+    <col min="4" max="4" width="38.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" t="s">
         <v>77</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>78</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>79</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="2" ht="125.25" customHeight="1" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>84</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" ht="185.25" spans="1:1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="179.4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/teacher/招聘周期.xlsx
+++ b/teacher/招聘周期.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="14760" windowHeight="4224" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="14760" windowHeight="4220" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="省外" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="97">
   <si>
     <t>学校</t>
   </si>
@@ -314,12 +314,36 @@
     <t>http://www.mtotc.com.cn/info/1002/8648.htm</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>烟台职业学院</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0535-6927131</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械相关的要求博士</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.ytvc.edu.cn/info/1011/3378.htm</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>烟台职业学院2021年公开招聘工作人员简章</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -353,6 +377,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -381,7 +422,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -396,6 +437,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -457,15 +500,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1005840</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:colOff>1170940</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>147320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>428613</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>13541</xdr:rowOff>
+      <xdr:colOff>593713</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>841</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -482,8 +525,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16017240" y="2811780"/>
-          <a:ext cx="12254853" cy="1430861"/>
+          <a:off x="17846040" y="3004820"/>
+          <a:ext cx="13678523" cy="1453721"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -999,16 +1042,16 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="75.77734375" customWidth="1"/>
+    <col min="2" max="2" width="75.75" customWidth="1"/>
     <col min="3" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="67.44140625" customWidth="1"/>
+    <col min="6" max="6" width="67.4140625" customWidth="1"/>
     <col min="8" max="8" width="34.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1034,7 +1077,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="84" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1060,7 +1103,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1099,21 +1142,21 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C10:C12"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" customWidth="1"/>
-    <col min="2" max="2" width="75.77734375" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" customWidth="1"/>
-    <col min="4" max="4" width="76.109375" customWidth="1"/>
+    <col min="1" max="1" width="23.4140625" customWidth="1"/>
+    <col min="2" max="2" width="75.75" customWidth="1"/>
+    <col min="3" max="3" width="16.25" customWidth="1"/>
+    <col min="4" max="4" width="76.08203125" customWidth="1"/>
     <col min="5" max="5" width="27.33203125" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="45.44140625" customWidth="1"/>
+    <col min="7" max="7" width="45.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1145,7 +1188,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -1171,7 +1214,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -1197,7 +1240,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>30</v>
       </c>
@@ -1229,7 +1272,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -1255,7 +1298,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -1272,7 +1315,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -1286,7 +1329,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -1303,7 +1346,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -1317,7 +1360,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>58</v>
       </c>
@@ -1346,7 +1389,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>63</v>
       </c>
@@ -1375,7 +1418,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="42" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>69</v>
       </c>
@@ -1395,7 +1438,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>85</v>
       </c>
@@ -1415,7 +1458,30 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="2">
+        <v>44280</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>74</v>
       </c>
@@ -1445,10 +1511,12 @@
     <hyperlink ref="D8" r:id="rId17"/>
     <hyperlink ref="D9" r:id="rId18"/>
     <hyperlink ref="D13" r:id="rId19"/>
+    <hyperlink ref="D14" r:id="rId20"/>
+    <hyperlink ref="B14" r:id="rId21" display="https://www.ytvc.edu.cn/info/1011/3378.htm"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300"/>
-  <drawing r:id="rId20"/>
+  <drawing r:id="rId22"/>
 </worksheet>
 </file>
 
@@ -1460,15 +1528,15 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.44140625" customWidth="1"/>
-    <col min="2" max="2" width="57.21875" customWidth="1"/>
-    <col min="3" max="3" width="69.77734375" customWidth="1"/>
-    <col min="4" max="4" width="38.21875" customWidth="1"/>
+    <col min="1" max="1" width="50.4140625" customWidth="1"/>
+    <col min="2" max="2" width="57.25" customWidth="1"/>
+    <col min="3" max="3" width="69.75" customWidth="1"/>
+    <col min="4" max="4" width="38.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -1482,7 +1550,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="125.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>80</v>
       </c>
@@ -1511,17 +1579,17 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="179.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="182" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>84</v>
       </c>
